--- a/data/xlsx/Achieve.xlsx
+++ b/data/xlsx/Achieve.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I803"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -21290,43 +21290,43 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>AID_通信対戦数初回</t>
+          <t>AID_神竜の章０１クリア</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>首次进行异界的试炼。</t>
+          <t>已完成{[0100]}《{[0101]}》。</t>
         </is>
       </c>
       <c r="C646" t="n">
         <v>4</v>
       </c>
       <c r="D646" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E646" t="n">
-        <v>1</v>
-      </c>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>次</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr"/>
       <c r="H646" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>AID_通信対戦数10回</t>
+          <t>AID_通信対戦数初回</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次异界的试炼。</t>
+          <t>首次进行异界的试炼。</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -21336,7 +21336,7 @@
         <v>80</v>
       </c>
       <c r="E647" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F647" t="inlineStr"/>
       <c r="G647" t="inlineStr">
@@ -21345,14 +21345,14 @@
         </is>
       </c>
       <c r="H647" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>AID_通信対戦数20回</t>
+          <t>AID_通信対戦数10回</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -21367,7 +21367,7 @@
         <v>80</v>
       </c>
       <c r="E648" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr">
@@ -21376,14 +21376,14 @@
         </is>
       </c>
       <c r="H648" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>AID_通信対戦数30回</t>
+          <t>AID_通信対戦数20回</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -21398,7 +21398,7 @@
         <v>80</v>
       </c>
       <c r="E649" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
@@ -21407,14 +21407,14 @@
         </is>
       </c>
       <c r="H649" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>AID_通信対戦数40回</t>
+          <t>AID_通信対戦数30回</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -21429,7 +21429,7 @@
         <v>80</v>
       </c>
       <c r="E650" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
@@ -21438,14 +21438,14 @@
         </is>
       </c>
       <c r="H650" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>AID_通信対戦数50回</t>
+          <t>AID_通信対戦数40回</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -21460,7 +21460,7 @@
         <v>80</v>
       </c>
       <c r="E651" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr">
@@ -21469,14 +21469,14 @@
         </is>
       </c>
       <c r="H651" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>AID_通信対戦数60回</t>
+          <t>AID_通信対戦数50回</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -21491,7 +21491,7 @@
         <v>80</v>
       </c>
       <c r="E652" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr">
@@ -21500,14 +21500,14 @@
         </is>
       </c>
       <c r="H652" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>AID_通信対戦数70回</t>
+          <t>AID_通信対戦数60回</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -21522,7 +21522,7 @@
         <v>80</v>
       </c>
       <c r="E653" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr">
@@ -21531,14 +21531,14 @@
         </is>
       </c>
       <c r="H653" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>AID_通信対戦数80回</t>
+          <t>AID_通信対戦数70回</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>80</v>
       </c>
       <c r="E654" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
@@ -21562,14 +21562,14 @@
         </is>
       </c>
       <c r="H654" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>AID_通信対戦数90回</t>
+          <t>AID_通信対戦数80回</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -21584,7 +21584,7 @@
         <v>80</v>
       </c>
       <c r="E655" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
@@ -21593,14 +21593,14 @@
         </is>
       </c>
       <c r="H655" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>AID_通信対戦数100回</t>
+          <t>AID_通信対戦数90回</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -21615,7 +21615,7 @@
         <v>80</v>
       </c>
       <c r="E656" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
@@ -21624,14 +21624,14 @@
         </is>
       </c>
       <c r="H656" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>AID_通信対戦数110回</t>
+          <t>AID_通信対戦数100回</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -21646,7 +21646,7 @@
         <v>80</v>
       </c>
       <c r="E657" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
@@ -21655,14 +21655,14 @@
         </is>
       </c>
       <c r="H657" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>AID_通信対戦数120回</t>
+          <t>AID_通信対戦数110回</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -21677,7 +21677,7 @@
         <v>80</v>
       </c>
       <c r="E658" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr">
@@ -21686,14 +21686,14 @@
         </is>
       </c>
       <c r="H658" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>AID_通信対戦数130回</t>
+          <t>AID_通信対戦数120回</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -21708,7 +21708,7 @@
         <v>80</v>
       </c>
       <c r="E659" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
@@ -21717,14 +21717,14 @@
         </is>
       </c>
       <c r="H659" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>AID_通信対戦数140回</t>
+          <t>AID_通信対戦数130回</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -21739,7 +21739,7 @@
         <v>80</v>
       </c>
       <c r="E660" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr">
@@ -21748,14 +21748,14 @@
         </is>
       </c>
       <c r="H660" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>AID_通信対戦数150回</t>
+          <t>AID_通信対戦数140回</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -21770,7 +21770,7 @@
         <v>80</v>
       </c>
       <c r="E661" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr">
@@ -21779,14 +21779,14 @@
         </is>
       </c>
       <c r="H661" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>AID_通信対戦数160回</t>
+          <t>AID_通信対戦数150回</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -21801,7 +21801,7 @@
         <v>80</v>
       </c>
       <c r="E662" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
@@ -21810,14 +21810,14 @@
         </is>
       </c>
       <c r="H662" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>AID_通信対戦数170回</t>
+          <t>AID_通信対戦数160回</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -21832,7 +21832,7 @@
         <v>80</v>
       </c>
       <c r="E663" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr">
@@ -21841,14 +21841,14 @@
         </is>
       </c>
       <c r="H663" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>AID_通信対戦数180回</t>
+          <t>AID_通信対戦数170回</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -21863,7 +21863,7 @@
         <v>80</v>
       </c>
       <c r="E664" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr">
@@ -21872,14 +21872,14 @@
         </is>
       </c>
       <c r="H664" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>AID_通信対戦数190回</t>
+          <t>AID_通信対戦数180回</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -21894,7 +21894,7 @@
         <v>80</v>
       </c>
       <c r="E665" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr">
@@ -21903,14 +21903,14 @@
         </is>
       </c>
       <c r="H665" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>AID_通信対戦数200回</t>
+          <t>AID_通信対戦数190回</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -21925,7 +21925,7 @@
         <v>80</v>
       </c>
       <c r="E666" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
@@ -21934,29 +21934,29 @@
         </is>
       </c>
       <c r="H666" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　初回</t>
+          <t>AID_通信対戦数200回</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>首次于异界的试炼中获胜。</t>
+          <t>挑战了{[0100]}次异界的试炼。</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>4</v>
       </c>
       <c r="D667" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E667" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
@@ -21965,19 +21965,19 @@
         </is>
       </c>
       <c r="H667" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　10回</t>
+          <t>AID_通信対戦勝利数　初回</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>于异界的试炼中获胜了{[0100]}次。</t>
+          <t>首次于异界的试炼中获胜。</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -21987,7 +21987,7 @@
         <v>81</v>
       </c>
       <c r="E668" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
@@ -21996,14 +21996,14 @@
         </is>
       </c>
       <c r="H668" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　20回</t>
+          <t>AID_通信対戦勝利数　10回</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -22018,7 +22018,7 @@
         <v>81</v>
       </c>
       <c r="E669" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
@@ -22027,14 +22027,14 @@
         </is>
       </c>
       <c r="H669" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　30回</t>
+          <t>AID_通信対戦勝利数　20回</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -22049,7 +22049,7 @@
         <v>81</v>
       </c>
       <c r="E670" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
@@ -22058,14 +22058,14 @@
         </is>
       </c>
       <c r="H670" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　40回</t>
+          <t>AID_通信対戦勝利数　30回</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -22080,7 +22080,7 @@
         <v>81</v>
       </c>
       <c r="E671" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr">
@@ -22089,14 +22089,14 @@
         </is>
       </c>
       <c r="H671" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　50回</t>
+          <t>AID_通信対戦勝利数　40回</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -22111,7 +22111,7 @@
         <v>81</v>
       </c>
       <c r="E672" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr">
@@ -22120,14 +22120,14 @@
         </is>
       </c>
       <c r="H672" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　60回</t>
+          <t>AID_通信対戦勝利数　50回</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -22142,7 +22142,7 @@
         <v>81</v>
       </c>
       <c r="E673" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr">
@@ -22151,14 +22151,14 @@
         </is>
       </c>
       <c r="H673" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　70回</t>
+          <t>AID_通信対戦勝利数　60回</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -22173,7 +22173,7 @@
         <v>81</v>
       </c>
       <c r="E674" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr">
@@ -22182,14 +22182,14 @@
         </is>
       </c>
       <c r="H674" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　80回</t>
+          <t>AID_通信対戦勝利数　70回</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -22204,7 +22204,7 @@
         <v>81</v>
       </c>
       <c r="E675" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr">
@@ -22213,14 +22213,14 @@
         </is>
       </c>
       <c r="H675" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　90回</t>
+          <t>AID_通信対戦勝利数　80回</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -22235,7 +22235,7 @@
         <v>81</v>
       </c>
       <c r="E676" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr">
@@ -22244,14 +22244,14 @@
         </is>
       </c>
       <c r="H676" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　100回</t>
+          <t>AID_通信対戦勝利数　90回</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -22266,7 +22266,7 @@
         <v>81</v>
       </c>
       <c r="E677" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
@@ -22275,29 +22275,29 @@
         </is>
       </c>
       <c r="H677" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　初回</t>
+          <t>AID_通信対戦勝利数　100回</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>首次进行续战的试炼。</t>
+          <t>于异界的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>4</v>
       </c>
       <c r="D678" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E678" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
@@ -22306,19 +22306,19 @@
         </is>
       </c>
       <c r="H678" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　10回</t>
+          <t>AID_リレーバトル数　初回</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次续战的试炼。</t>
+          <t>首次进行续战的试炼。</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -22328,7 +22328,7 @@
         <v>82</v>
       </c>
       <c r="E679" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
@@ -22337,14 +22337,14 @@
         </is>
       </c>
       <c r="H679" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　20回</t>
+          <t>AID_リレーバトル数　10回</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -22359,7 +22359,7 @@
         <v>82</v>
       </c>
       <c r="E680" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr">
@@ -22368,14 +22368,14 @@
         </is>
       </c>
       <c r="H680" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　30回</t>
+          <t>AID_リレーバトル数　20回</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -22390,7 +22390,7 @@
         <v>82</v>
       </c>
       <c r="E681" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr">
@@ -22399,14 +22399,14 @@
         </is>
       </c>
       <c r="H681" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　40回</t>
+          <t>AID_リレーバトル数　30回</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -22421,7 +22421,7 @@
         <v>82</v>
       </c>
       <c r="E682" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr">
@@ -22430,14 +22430,14 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　50回</t>
+          <t>AID_リレーバトル数　40回</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -22452,7 +22452,7 @@
         <v>82</v>
       </c>
       <c r="E683" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
@@ -22461,14 +22461,14 @@
         </is>
       </c>
       <c r="H683" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　60回</t>
+          <t>AID_リレーバトル数　50回</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -22483,7 +22483,7 @@
         <v>82</v>
       </c>
       <c r="E684" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr">
@@ -22492,14 +22492,14 @@
         </is>
       </c>
       <c r="H684" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　70回</t>
+          <t>AID_リレーバトル数　60回</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -22514,7 +22514,7 @@
         <v>82</v>
       </c>
       <c r="E685" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr">
@@ -22523,14 +22523,14 @@
         </is>
       </c>
       <c r="H685" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　80回</t>
+          <t>AID_リレーバトル数　70回</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -22545,7 +22545,7 @@
         <v>82</v>
       </c>
       <c r="E686" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr">
@@ -22554,14 +22554,14 @@
         </is>
       </c>
       <c r="H686" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　90回</t>
+          <t>AID_リレーバトル数　80回</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -22576,7 +22576,7 @@
         <v>82</v>
       </c>
       <c r="E687" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr">
@@ -22585,14 +22585,14 @@
         </is>
       </c>
       <c r="H687" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　100回</t>
+          <t>AID_リレーバトル数　90回</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>82</v>
       </c>
       <c r="E688" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr">
@@ -22616,14 +22616,14 @@
         </is>
       </c>
       <c r="H688" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　110回</t>
+          <t>AID_リレーバトル数　100回</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -22638,7 +22638,7 @@
         <v>82</v>
       </c>
       <c r="E689" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
@@ -22647,14 +22647,14 @@
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　120回</t>
+          <t>AID_リレーバトル数　110回</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -22669,7 +22669,7 @@
         <v>82</v>
       </c>
       <c r="E690" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
@@ -22678,14 +22678,14 @@
         </is>
       </c>
       <c r="H690" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　130回</t>
+          <t>AID_リレーバトル数　120回</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -22700,7 +22700,7 @@
         <v>82</v>
       </c>
       <c r="E691" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
@@ -22709,14 +22709,14 @@
         </is>
       </c>
       <c r="H691" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　140回</t>
+          <t>AID_リレーバトル数　130回</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -22731,7 +22731,7 @@
         <v>82</v>
       </c>
       <c r="E692" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
@@ -22740,14 +22740,14 @@
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　150回</t>
+          <t>AID_リレーバトル数　140回</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -22762,7 +22762,7 @@
         <v>82</v>
       </c>
       <c r="E693" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
@@ -22771,14 +22771,14 @@
         </is>
       </c>
       <c r="H693" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　160回</t>
+          <t>AID_リレーバトル数　150回</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -22793,7 +22793,7 @@
         <v>82</v>
       </c>
       <c r="E694" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr">
@@ -22802,14 +22802,14 @@
         </is>
       </c>
       <c r="H694" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　170回</t>
+          <t>AID_リレーバトル数　160回</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -22824,7 +22824,7 @@
         <v>82</v>
       </c>
       <c r="E695" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
@@ -22833,14 +22833,14 @@
         </is>
       </c>
       <c r="H695" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　180回</t>
+          <t>AID_リレーバトル数　170回</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -22855,7 +22855,7 @@
         <v>82</v>
       </c>
       <c r="E696" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr">
@@ -22864,14 +22864,14 @@
         </is>
       </c>
       <c r="H696" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　190回</t>
+          <t>AID_リレーバトル数　180回</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -22886,7 +22886,7 @@
         <v>82</v>
       </c>
       <c r="E697" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
@@ -22895,14 +22895,14 @@
         </is>
       </c>
       <c r="H697" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　200回</t>
+          <t>AID_リレーバトル数　190回</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -22917,7 +22917,7 @@
         <v>82</v>
       </c>
       <c r="E698" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
@@ -22926,29 +22926,29 @@
         </is>
       </c>
       <c r="H698" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　初回</t>
+          <t>AID_リレーバトル数　200回</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>首次于续战的试炼中获胜。</t>
+          <t>挑战了{[0100]}次续战的试炼。</t>
         </is>
       </c>
       <c r="C699" t="n">
         <v>4</v>
       </c>
       <c r="D699" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E699" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr">
@@ -22957,19 +22957,19 @@
         </is>
       </c>
       <c r="H699" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　10回</t>
+          <t>AID_リレーバトル勝利数　初回</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>于续战的试炼中获胜了{[0100]}次。</t>
+          <t>首次于续战的试炼中获胜。</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -22979,7 +22979,7 @@
         <v>83</v>
       </c>
       <c r="E700" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr">
@@ -22988,14 +22988,14 @@
         </is>
       </c>
       <c r="H700" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　20回</t>
+          <t>AID_リレーバトル勝利数　10回</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -23010,7 +23010,7 @@
         <v>83</v>
       </c>
       <c r="E701" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr">
@@ -23019,14 +23019,14 @@
         </is>
       </c>
       <c r="H701" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　30回</t>
+          <t>AID_リレーバトル勝利数　20回</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -23041,7 +23041,7 @@
         <v>83</v>
       </c>
       <c r="E702" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr">
@@ -23050,14 +23050,14 @@
         </is>
       </c>
       <c r="H702" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　40回</t>
+          <t>AID_リレーバトル勝利数　30回</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -23072,7 +23072,7 @@
         <v>83</v>
       </c>
       <c r="E703" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr">
@@ -23081,14 +23081,14 @@
         </is>
       </c>
       <c r="H703" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　50回</t>
+          <t>AID_リレーバトル勝利数　40回</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -23103,7 +23103,7 @@
         <v>83</v>
       </c>
       <c r="E704" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr">
@@ -23112,14 +23112,14 @@
         </is>
       </c>
       <c r="H704" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　60回</t>
+          <t>AID_リレーバトル勝利数　50回</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -23134,7 +23134,7 @@
         <v>83</v>
       </c>
       <c r="E705" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr">
@@ -23143,14 +23143,14 @@
         </is>
       </c>
       <c r="H705" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　70回</t>
+          <t>AID_リレーバトル勝利数　60回</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -23165,7 +23165,7 @@
         <v>83</v>
       </c>
       <c r="E706" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr">
@@ -23174,14 +23174,14 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　80回</t>
+          <t>AID_リレーバトル勝利数　70回</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -23196,7 +23196,7 @@
         <v>83</v>
       </c>
       <c r="E707" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr">
@@ -23205,14 +23205,14 @@
         </is>
       </c>
       <c r="H707" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　90回</t>
+          <t>AID_リレーバトル勝利数　80回</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -23227,7 +23227,7 @@
         <v>83</v>
       </c>
       <c r="E708" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
@@ -23236,14 +23236,14 @@
         </is>
       </c>
       <c r="H708" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　100回</t>
+          <t>AID_リレーバトル勝利数　90回</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -23258,7 +23258,7 @@
         <v>83</v>
       </c>
       <c r="E709" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr">
@@ -23267,50 +23267,50 @@
         </is>
       </c>
       <c r="H709" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク1</t>
+          <t>AID_リレーバトル勝利数　100回</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于续战的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C710" t="n">
         <v>4</v>
       </c>
       <c r="D710" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E710" t="n">
-        <v>1</v>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>绿野的连战</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
       <c r="H710" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク10</t>
+          <t>AID_連戦マップ１　ランク1</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -23320,7 +23320,7 @@
         <v>84</v>
       </c>
       <c r="E711" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク20</t>
+          <t>AID_連戦マップ１　ランク10</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -23351,7 +23351,7 @@
         <v>84</v>
       </c>
       <c r="E712" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -23360,14 +23360,14 @@
       </c>
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク30</t>
+          <t>AID_連戦マップ１　ランク20</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -23382,7 +23382,7 @@
         <v>84</v>
       </c>
       <c r="E713" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F713" t="inlineStr">
         <is>
@@ -23391,14 +23391,14 @@
       </c>
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク40</t>
+          <t>AID_連戦マップ１　ランク30</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -23413,7 +23413,7 @@
         <v>84</v>
       </c>
       <c r="E714" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -23422,14 +23422,14 @@
       </c>
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク50</t>
+          <t>AID_連戦マップ１　ランク40</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -23444,7 +23444,7 @@
         <v>84</v>
       </c>
       <c r="E715" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -23453,50 +23453,50 @@
       </c>
       <c r="G715" t="inlineStr"/>
       <c r="H715" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク1</t>
+          <t>AID_連戦マップ１　ランク50</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C716" t="n">
         <v>4</v>
       </c>
       <c r="D716" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E716" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>花田的连战</t>
+          <t>绿野的连战</t>
         </is>
       </c>
       <c r="G716" t="inlineStr"/>
       <c r="H716" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク10</t>
+          <t>AID_連戦マップ２　ランク1</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -23506,7 +23506,7 @@
         <v>85</v>
       </c>
       <c r="E717" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク20</t>
+          <t>AID_連戦マップ２　ランク10</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -23537,7 +23537,7 @@
         <v>85</v>
       </c>
       <c r="E718" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -23546,14 +23546,14 @@
       </c>
       <c r="G718" t="inlineStr"/>
       <c r="H718" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク30</t>
+          <t>AID_連戦マップ２　ランク20</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -23568,7 +23568,7 @@
         <v>85</v>
       </c>
       <c r="E719" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -23577,14 +23577,14 @@
       </c>
       <c r="G719" t="inlineStr"/>
       <c r="H719" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク40</t>
+          <t>AID_連戦マップ２　ランク30</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -23599,7 +23599,7 @@
         <v>85</v>
       </c>
       <c r="E720" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -23608,14 +23608,14 @@
       </c>
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク50</t>
+          <t>AID_連戦マップ２　ランク40</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -23630,7 +23630,7 @@
         <v>85</v>
       </c>
       <c r="E721" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -23639,50 +23639,50 @@
       </c>
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク1</t>
+          <t>AID_連戦マップ２　ランク50</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C722" t="n">
         <v>4</v>
       </c>
       <c r="D722" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E722" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>高原的连战</t>
+          <t>花田的连战</t>
         </is>
       </c>
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク10</t>
+          <t>AID_連戦マップ３　ランク1</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -23692,7 +23692,7 @@
         <v>86</v>
       </c>
       <c r="E723" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク20</t>
+          <t>AID_連戦マップ３　ランク10</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -23723,7 +23723,7 @@
         <v>86</v>
       </c>
       <c r="E724" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -23732,14 +23732,14 @@
       </c>
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク30</t>
+          <t>AID_連戦マップ３　ランク20</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -23754,7 +23754,7 @@
         <v>86</v>
       </c>
       <c r="E725" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -23763,14 +23763,14 @@
       </c>
       <c r="G725" t="inlineStr"/>
       <c r="H725" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク40</t>
+          <t>AID_連戦マップ３　ランク30</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -23785,7 +23785,7 @@
         <v>86</v>
       </c>
       <c r="E726" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -23794,14 +23794,14 @@
       </c>
       <c r="G726" t="inlineStr"/>
       <c r="H726" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク50</t>
+          <t>AID_連戦マップ３　ランク40</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -23816,7 +23816,7 @@
         <v>86</v>
       </c>
       <c r="E727" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F727" t="inlineStr">
         <is>
@@ -23825,50 +23825,50 @@
       </c>
       <c r="G727" t="inlineStr"/>
       <c r="H727" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク1</t>
+          <t>AID_連戦マップ３　ランク50</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C728" t="n">
         <v>4</v>
       </c>
       <c r="D728" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E728" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>雪森林的连战</t>
+          <t>高原的连战</t>
         </is>
       </c>
       <c r="G728" t="inlineStr"/>
       <c r="H728" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク10</t>
+          <t>AID_連戦マップ４　ランク1</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -23878,7 +23878,7 @@
         <v>87</v>
       </c>
       <c r="E729" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク20</t>
+          <t>AID_連戦マップ４　ランク10</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -23909,7 +23909,7 @@
         <v>87</v>
       </c>
       <c r="E730" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F730" t="inlineStr">
         <is>
@@ -23918,14 +23918,14 @@
       </c>
       <c r="G730" t="inlineStr"/>
       <c r="H730" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク30</t>
+          <t>AID_連戦マップ４　ランク20</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -23940,7 +23940,7 @@
         <v>87</v>
       </c>
       <c r="E731" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
@@ -23949,14 +23949,14 @@
       </c>
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク40</t>
+          <t>AID_連戦マップ４　ランク30</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -23971,7 +23971,7 @@
         <v>87</v>
       </c>
       <c r="E732" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F732" t="inlineStr">
         <is>
@@ -23980,14 +23980,14 @@
       </c>
       <c r="G732" t="inlineStr"/>
       <c r="H732" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク50</t>
+          <t>AID_連戦マップ４　ランク40</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -24002,7 +24002,7 @@
         <v>87</v>
       </c>
       <c r="E733" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -24011,50 +24011,50 @@
       </c>
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク1</t>
+          <t>AID_連戦マップ４　ランク50</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C734" t="n">
         <v>4</v>
       </c>
       <c r="D734" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E734" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>沙海的连战</t>
+          <t>雪森林的连战</t>
         </is>
       </c>
       <c r="G734" t="inlineStr"/>
       <c r="H734" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク10</t>
+          <t>AID_連戦マップ５　ランク1</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -24064,7 +24064,7 @@
         <v>88</v>
       </c>
       <c r="E735" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク20</t>
+          <t>AID_連戦マップ５　ランク10</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -24095,7 +24095,7 @@
         <v>88</v>
       </c>
       <c r="E736" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
@@ -24104,14 +24104,14 @@
       </c>
       <c r="G736" t="inlineStr"/>
       <c r="H736" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク30</t>
+          <t>AID_連戦マップ５　ランク20</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -24126,7 +24126,7 @@
         <v>88</v>
       </c>
       <c r="E737" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F737" t="inlineStr">
         <is>
@@ -24135,14 +24135,14 @@
       </c>
       <c r="G737" t="inlineStr"/>
       <c r="H737" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク40</t>
+          <t>AID_連戦マップ５　ランク30</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -24157,7 +24157,7 @@
         <v>88</v>
       </c>
       <c r="E738" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -24166,14 +24166,14 @@
       </c>
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク50</t>
+          <t>AID_連戦マップ５　ランク40</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -24188,7 +24188,7 @@
         <v>88</v>
       </c>
       <c r="E739" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -24197,50 +24197,50 @@
       </c>
       <c r="G739" t="inlineStr"/>
       <c r="H739" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク1</t>
+          <t>AID_連戦マップ５　ランク50</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C740" t="n">
         <v>4</v>
       </c>
       <c r="D740" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E740" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>岩浆的连战</t>
+          <t>沙海的连战</t>
         </is>
       </c>
       <c r="G740" t="inlineStr"/>
       <c r="H740" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク10</t>
+          <t>AID_連戦マップ６　ランク1</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C741" t="n">
@@ -24250,7 +24250,7 @@
         <v>89</v>
       </c>
       <c r="E741" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク20</t>
+          <t>AID_連戦マップ６　ランク10</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -24281,7 +24281,7 @@
         <v>89</v>
       </c>
       <c r="E742" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -24290,14 +24290,14 @@
       </c>
       <c r="G742" t="inlineStr"/>
       <c r="H742" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク30</t>
+          <t>AID_連戦マップ６　ランク20</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -24312,7 +24312,7 @@
         <v>89</v>
       </c>
       <c r="E743" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F743" t="inlineStr">
         <is>
@@ -24321,14 +24321,14 @@
       </c>
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク40</t>
+          <t>AID_連戦マップ６　ランク30</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -24343,7 +24343,7 @@
         <v>89</v>
       </c>
       <c r="E744" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -24352,14 +24352,14 @@
       </c>
       <c r="G744" t="inlineStr"/>
       <c r="H744" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク50</t>
+          <t>AID_連戦マップ６　ランク40</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -24374,7 +24374,7 @@
         <v>89</v>
       </c>
       <c r="E745" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -24383,37 +24383,45 @@
       </c>
       <c r="G745" t="inlineStr"/>
       <c r="H745" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>AID_クラスチェンジした回数</t>
-        </is>
-      </c>
-      <c r="B746" t="inlineStr"/>
+          <t>AID_連戦マップ６　ランク50</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+        </is>
+      </c>
       <c r="C746" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D746" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E746" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F746" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>岩浆的连战</t>
+        </is>
+      </c>
       <c r="G746" t="inlineStr"/>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せノーマルをプレイした回数</t>
+          <t>AID_クラスチェンジした回数</t>
         </is>
       </c>
       <c r="B747" t="inlineStr"/>
@@ -24421,7 +24429,7 @@
         <v>5</v>
       </c>
       <c r="D747" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E747" t="n">
         <v>-1</v>
@@ -24436,7 +24444,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せハードをプレイした回数</t>
+          <t>AID_腕立て伏せノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B748" t="inlineStr"/>
@@ -24444,7 +24452,7 @@
         <v>5</v>
       </c>
       <c r="D748" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E748" t="n">
         <v>-1</v>
@@ -24459,7 +24467,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せエキスパートをプレイした回数</t>
+          <t>AID_腕立て伏せハードをプレイした回数</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -24467,7 +24475,7 @@
         <v>5</v>
       </c>
       <c r="D749" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E749" t="n">
         <v>-1</v>
@@ -24482,7 +24490,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せマッスルをプレイした回数</t>
+          <t>AID_腕立て伏せエキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B750" t="inlineStr"/>
@@ -24490,7 +24498,7 @@
         <v>5</v>
       </c>
       <c r="D750" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E750" t="n">
         <v>-1</v>
@@ -24505,7 +24513,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>AID_腹筋ノーマルをプレイした回数</t>
+          <t>AID_腕立て伏せマッスルをプレイした回数</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -24513,7 +24521,7 @@
         <v>5</v>
       </c>
       <c r="D751" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E751" t="n">
         <v>-1</v>
@@ -24528,7 +24536,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>AID_腹筋ハードをプレイした回数</t>
+          <t>AID_腹筋ノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B752" t="inlineStr"/>
@@ -24536,7 +24544,7 @@
         <v>5</v>
       </c>
       <c r="D752" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E752" t="n">
         <v>-1</v>
@@ -24551,7 +24559,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>AID_腹筋エキスパートをプレイした回数</t>
+          <t>AID_腹筋ハードをプレイした回数</t>
         </is>
       </c>
       <c r="B753" t="inlineStr"/>
@@ -24559,7 +24567,7 @@
         <v>5</v>
       </c>
       <c r="D753" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E753" t="n">
         <v>-1</v>
@@ -24574,7 +24582,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>AID_腹筋マッスルをプレイした回数</t>
+          <t>AID_腹筋エキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -24582,7 +24590,7 @@
         <v>5</v>
       </c>
       <c r="D754" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E754" t="n">
         <v>-1</v>
@@ -24597,7 +24605,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>AID_スクワットノーマルをプレイした回数</t>
+          <t>AID_腹筋マッスルをプレイした回数</t>
         </is>
       </c>
       <c r="B755" t="inlineStr"/>
@@ -24605,7 +24613,7 @@
         <v>5</v>
       </c>
       <c r="D755" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E755" t="n">
         <v>-1</v>
@@ -24620,7 +24628,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>AID_スクワットハードをプレイした回数</t>
+          <t>AID_スクワットノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -24628,7 +24636,7 @@
         <v>5</v>
       </c>
       <c r="D756" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E756" t="n">
         <v>-1</v>
@@ -24643,7 +24651,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>AID_スクワットエキスパートをプレイした回数</t>
+          <t>AID_スクワットハードをプレイした回数</t>
         </is>
       </c>
       <c r="B757" t="inlineStr"/>
@@ -24651,7 +24659,7 @@
         <v>5</v>
       </c>
       <c r="D757" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E757" t="n">
         <v>-1</v>
@@ -24666,7 +24674,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>AID_スクワットマッスルをプレイした回数</t>
+          <t>AID_スクワットエキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B758" t="inlineStr"/>
@@ -24674,7 +24682,7 @@
         <v>5</v>
       </c>
       <c r="D758" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E758" t="n">
         <v>-1</v>
@@ -24689,7 +24697,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>AID_ドラゴンシューターノーマルをプレイした回数</t>
+          <t>AID_スクワットマッスルをプレイした回数</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -24697,7 +24705,7 @@
         <v>5</v>
       </c>
       <c r="D759" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E759" t="n">
         <v>-1</v>
@@ -24712,7 +24720,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>AID_ドラゴンシューターハードをプレイした回数</t>
+          <t>AID_ドラゴンシューターノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B760" t="inlineStr"/>
@@ -24720,7 +24728,7 @@
         <v>5</v>
       </c>
       <c r="D760" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E760" t="n">
         <v>-1</v>
@@ -24735,7 +24743,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>AID_ドラゴンシューターエキスパートをプレイした回数</t>
+          <t>AID_ドラゴンシューターハードをプレイした回数</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -24743,7 +24751,7 @@
         <v>5</v>
       </c>
       <c r="D761" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E761" t="n">
         <v>-1</v>
@@ -24758,7 +24766,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>AID_小魚用竿で釣りした回数</t>
+          <t>AID_ドラゴンシューターエキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B762" t="inlineStr"/>
@@ -24766,7 +24774,7 @@
         <v>5</v>
       </c>
       <c r="D762" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E762" t="n">
         <v>-1</v>
@@ -24781,7 +24789,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>AID_頑丈竿で釣りした回数</t>
+          <t>AID_小魚用竿で釣りした回数</t>
         </is>
       </c>
       <c r="B763" t="inlineStr"/>
@@ -24789,7 +24797,7 @@
         <v>5</v>
       </c>
       <c r="D763" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E763" t="n">
         <v>-1</v>
@@ -24804,7 +24812,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>AID_万能竿で釣りした回数</t>
+          <t>AID_頑丈竿で釣りした回数</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -24812,7 +24820,7 @@
         <v>5</v>
       </c>
       <c r="D764" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E764" t="n">
         <v>-1</v>
@@ -24827,7 +24835,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>AID_マルスの指輪を磨いた回数</t>
+          <t>AID_万能竿で釣りした回数</t>
         </is>
       </c>
       <c r="B765" t="inlineStr"/>
@@ -24835,16 +24843,12 @@
         <v>5</v>
       </c>
       <c r="D765" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E765" t="n">
         <v>-1</v>
       </c>
-      <c r="F765" t="inlineStr">
-        <is>
-          <t>GID_マルス</t>
-        </is>
-      </c>
+      <c r="F765" t="inlineStr"/>
       <c r="G765" t="inlineStr"/>
       <c r="H765" t="n">
         <v>1</v>
@@ -24854,7 +24858,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>AID_シグルドの指輪を磨いた回数</t>
+          <t>AID_マルスの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -24869,7 +24873,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>GID_シグルド</t>
+          <t>GID_マルス</t>
         </is>
       </c>
       <c r="G766" t="inlineStr"/>
@@ -24881,7 +24885,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>AID_セリカの指輪を磨いた回数</t>
+          <t>AID_シグルドの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B767" t="inlineStr"/>
@@ -24896,7 +24900,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>GID_セリカ</t>
+          <t>GID_シグルド</t>
         </is>
       </c>
       <c r="G767" t="inlineStr"/>
@@ -24908,7 +24912,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>AID_ミカヤの指輪を磨いた回数</t>
+          <t>AID_セリカの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B768" t="inlineStr"/>
@@ -24923,7 +24927,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>GID_ミカヤ</t>
+          <t>GID_セリカ</t>
         </is>
       </c>
       <c r="G768" t="inlineStr"/>
@@ -24935,7 +24939,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>AID_ロイの指輪を磨いた回数</t>
+          <t>AID_ミカヤの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -24950,7 +24954,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>GID_ロイ</t>
+          <t>GID_ミカヤ</t>
         </is>
       </c>
       <c r="G769" t="inlineStr"/>
@@ -24962,7 +24966,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>AID_リーフの指輪を磨いた回数</t>
+          <t>AID_ロイの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B770" t="inlineStr"/>
@@ -24977,7 +24981,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>GID_リーフ</t>
+          <t>GID_ロイ</t>
         </is>
       </c>
       <c r="G770" t="inlineStr"/>
@@ -24989,7 +24993,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>AID_ルキナの指輪を磨いた回数</t>
+          <t>AID_リーフの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -25004,7 +25008,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>GID_ルキナ</t>
+          <t>GID_リーフ</t>
         </is>
       </c>
       <c r="G771" t="inlineStr"/>
@@ -25016,7 +25020,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>AID_リンの指輪を磨いた回数</t>
+          <t>AID_ルキナの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B772" t="inlineStr"/>
@@ -25031,7 +25035,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
       <c r="G772" t="inlineStr"/>
@@ -25043,7 +25047,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>AID_アイクの指輪を磨いた回数</t>
+          <t>AID_リンの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B773" t="inlineStr"/>
@@ -25058,7 +25062,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>GID_アイク</t>
+          <t>GID_リン</t>
         </is>
       </c>
       <c r="G773" t="inlineStr"/>
@@ -25070,7 +25074,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>AID_ベレトの指輪を磨いた回数</t>
+          <t>AID_アイクの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -25085,7 +25089,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>GID_ベレト</t>
+          <t>GID_アイク</t>
         </is>
       </c>
       <c r="G774" t="inlineStr"/>
@@ -25097,7 +25101,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>AID_カムイの指輪を磨いた回数</t>
+          <t>AID_ベレトの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B775" t="inlineStr"/>
@@ -25112,7 +25116,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>GID_カムイ</t>
+          <t>GID_ベレト</t>
         </is>
       </c>
       <c r="G775" t="inlineStr"/>
@@ -25124,7 +25128,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>AID_エイリークの指輪を磨いた回数</t>
+          <t>AID_カムイの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -25139,7 +25143,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>GID_エイリーク</t>
+          <t>GID_カムイ</t>
         </is>
       </c>
       <c r="G776" t="inlineStr"/>
@@ -25151,7 +25155,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１挑戦する回数</t>
+          <t>AID_エイリークの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B777" t="inlineStr"/>
@@ -25159,12 +25163,16 @@
         <v>5</v>
       </c>
       <c r="D777" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E777" t="n">
         <v>-1</v>
       </c>
-      <c r="F777" t="inlineStr"/>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>GID_エイリーク</t>
+        </is>
+      </c>
       <c r="G777" t="inlineStr"/>
       <c r="H777" t="n">
         <v>1</v>
@@ -25174,7 +25182,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２挑戦する回数</t>
+          <t>AID_エーデルガルトの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B778" t="inlineStr"/>
@@ -25182,12 +25190,16 @@
         <v>5</v>
       </c>
       <c r="D778" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E778" t="n">
         <v>-1</v>
       </c>
-      <c r="F778" t="inlineStr"/>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
       <c r="G778" t="inlineStr"/>
       <c r="H778" t="n">
         <v>1</v>
@@ -25197,7 +25209,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３挑戦する回数</t>
+          <t>AID_ディミトリの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -25205,12 +25217,16 @@
         <v>5</v>
       </c>
       <c r="D779" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E779" t="n">
         <v>-1</v>
       </c>
-      <c r="F779" t="inlineStr"/>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
       <c r="G779" t="inlineStr"/>
       <c r="H779" t="n">
         <v>1</v>
@@ -25220,7 +25236,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４挑戦する回数</t>
+          <t>AID_クロードの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B780" t="inlineStr"/>
@@ -25228,12 +25244,16 @@
         <v>5</v>
       </c>
       <c r="D780" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E780" t="n">
         <v>-1</v>
       </c>
-      <c r="F780" t="inlineStr"/>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
       <c r="G780" t="inlineStr"/>
       <c r="H780" t="n">
         <v>1</v>
@@ -25243,7 +25263,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５挑戦する回数</t>
+          <t>AID_チキの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -25251,12 +25271,16 @@
         <v>5</v>
       </c>
       <c r="D781" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E781" t="n">
         <v>-1</v>
       </c>
-      <c r="F781" t="inlineStr"/>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
       <c r="G781" t="inlineStr"/>
       <c r="H781" t="n">
         <v>1</v>
@@ -25266,7 +25290,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６挑戦する回数</t>
+          <t>AID_連戦マップ１挑戦する回数</t>
         </is>
       </c>
       <c r="B782" t="inlineStr"/>
@@ -25274,7 +25298,7 @@
         <v>5</v>
       </c>
       <c r="D782" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E782" t="n">
         <v>-1</v>
@@ -25289,7 +25313,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１クリアした回数</t>
+          <t>AID_連戦マップ２挑戦する回数</t>
         </is>
       </c>
       <c r="B783" t="inlineStr"/>
@@ -25297,7 +25321,7 @@
         <v>5</v>
       </c>
       <c r="D783" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E783" t="n">
         <v>-1</v>
@@ -25312,7 +25336,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２クリアした回数</t>
+          <t>AID_連戦マップ３挑戦する回数</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -25320,7 +25344,7 @@
         <v>5</v>
       </c>
       <c r="D784" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E784" t="n">
         <v>-1</v>
@@ -25335,7 +25359,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３クリアした回数</t>
+          <t>AID_連戦マップ４挑戦する回数</t>
         </is>
       </c>
       <c r="B785" t="inlineStr"/>
@@ -25343,7 +25367,7 @@
         <v>5</v>
       </c>
       <c r="D785" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E785" t="n">
         <v>-1</v>
@@ -25358,7 +25382,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４クリアした回数</t>
+          <t>AID_連戦マップ５挑戦する回数</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -25366,7 +25390,7 @@
         <v>5</v>
       </c>
       <c r="D786" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E786" t="n">
         <v>-1</v>
@@ -25381,7 +25405,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５クリアした回数</t>
+          <t>AID_連戦マップ６挑戦する回数</t>
         </is>
       </c>
       <c r="B787" t="inlineStr"/>
@@ -25389,7 +25413,7 @@
         <v>5</v>
       </c>
       <c r="D787" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E787" t="n">
         <v>-1</v>
@@ -25404,7 +25428,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６クリアした回数</t>
+          <t>AID_連戦マップ１クリアした回数</t>
         </is>
       </c>
       <c r="B788" t="inlineStr"/>
@@ -25412,7 +25436,7 @@
         <v>5</v>
       </c>
       <c r="D788" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E788" t="n">
         <v>-1</v>
@@ -25427,7 +25451,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>AID_リレーバトル１開始した回数</t>
+          <t>AID_連戦マップ２クリアした回数</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -25435,7 +25459,7 @@
         <v>5</v>
       </c>
       <c r="D789" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E789" t="n">
         <v>-1</v>
@@ -25450,7 +25474,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>AID_リレーバトル２開始した回数</t>
+          <t>AID_連戦マップ３クリアした回数</t>
         </is>
       </c>
       <c r="B790" t="inlineStr"/>
@@ -25458,7 +25482,7 @@
         <v>5</v>
       </c>
       <c r="D790" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E790" t="n">
         <v>-1</v>
@@ -25473,7 +25497,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>AID_リレーバトル３開始した回数</t>
+          <t>AID_連戦マップ４クリアした回数</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -25481,7 +25505,7 @@
         <v>5</v>
       </c>
       <c r="D791" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E791" t="n">
         <v>-1</v>
@@ -25496,7 +25520,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>AID_リレーバトル４開始した回数</t>
+          <t>AID_連戦マップ５クリアした回数</t>
         </is>
       </c>
       <c r="B792" t="inlineStr"/>
@@ -25504,7 +25528,7 @@
         <v>5</v>
       </c>
       <c r="D792" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E792" t="n">
         <v>-1</v>
@@ -25519,7 +25543,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>AID_リレーバトル５開始した回数</t>
+          <t>AID_連戦マップ６クリアした回数</t>
         </is>
       </c>
       <c r="B793" t="inlineStr"/>
@@ -25527,7 +25551,7 @@
         <v>5</v>
       </c>
       <c r="D793" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E793" t="n">
         <v>-1</v>
@@ -25542,7 +25566,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>AID_リレーバトル６開始した回数</t>
+          <t>AID_リレーバトル１開始した回数</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -25550,7 +25574,7 @@
         <v>5</v>
       </c>
       <c r="D794" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E794" t="n">
         <v>-1</v>
@@ -25565,7 +25589,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>AID_リレーバトル引き継いだ回数</t>
+          <t>AID_リレーバトル２開始した回数</t>
         </is>
       </c>
       <c r="B795" t="inlineStr"/>
@@ -25573,7 +25597,7 @@
         <v>5</v>
       </c>
       <c r="D795" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E795" t="n">
         <v>-1</v>
@@ -25588,7 +25612,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>AID_お手軽対戦をプレイした回数</t>
+          <t>AID_リレーバトル３開始した回数</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -25596,7 +25620,7 @@
         <v>5</v>
       </c>
       <c r="D796" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E796" t="n">
         <v>-1</v>
@@ -25611,7 +25635,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>AID_お手軽対戦で勝利した回数</t>
+          <t>AID_リレーバトル４開始した回数</t>
         </is>
       </c>
       <c r="B797" t="inlineStr"/>
@@ -25619,7 +25643,7 @@
         <v>5</v>
       </c>
       <c r="D797" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E797" t="n">
         <v>-1</v>
@@ -25634,7 +25658,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>AID_お手軽対戦で失敗した回数</t>
+          <t>AID_リレーバトル５開始した回数</t>
         </is>
       </c>
       <c r="B798" t="inlineStr"/>
@@ -25642,7 +25666,7 @@
         <v>5</v>
       </c>
       <c r="D798" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E798" t="n">
         <v>-1</v>
@@ -25657,7 +25681,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>AID_本格対戦をプレイした回数</t>
+          <t>AID_リレーバトル６開始した回数</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -25665,7 +25689,7 @@
         <v>5</v>
       </c>
       <c r="D799" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E799" t="n">
         <v>-1</v>
@@ -25680,7 +25704,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>AID_本格対戦で勝利した回数</t>
+          <t>AID_リレーバトル引き継いだ回数</t>
         </is>
       </c>
       <c r="B800" t="inlineStr"/>
@@ -25688,7 +25712,7 @@
         <v>5</v>
       </c>
       <c r="D800" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E800" t="n">
         <v>-1</v>
@@ -25703,7 +25727,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>AID_本格対戦で失敗した回数</t>
+          <t>AID_お手軽対戦をプレイした回数</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -25711,7 +25735,7 @@
         <v>5</v>
       </c>
       <c r="D801" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E801" t="n">
         <v>-1</v>
@@ -25726,7 +25750,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>AID_本格対戦で防御勝利した回数</t>
+          <t>AID_お手軽対戦で勝利した回数</t>
         </is>
       </c>
       <c r="B802" t="inlineStr"/>
@@ -25734,7 +25758,7 @@
         <v>5</v>
       </c>
       <c r="D802" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E802" t="n">
         <v>-1</v>
@@ -25749,7 +25773,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>AID_本格対戦で防御失敗した回数</t>
+          <t>AID_お手軽対戦で失敗した回数</t>
         </is>
       </c>
       <c r="B803" t="inlineStr"/>
@@ -25757,7 +25781,7 @@
         <v>5</v>
       </c>
       <c r="D803" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E803" t="n">
         <v>-1</v>
@@ -25768,6 +25792,121 @@
         <v>1</v>
       </c>
       <c r="I803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>AID_本格対戦をプレイした回数</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="n">
+        <v>5</v>
+      </c>
+      <c r="D804" t="n">
+        <v>132</v>
+      </c>
+      <c r="E804" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="n">
+        <v>1</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で勝利した回数</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr"/>
+      <c r="C805" t="n">
+        <v>5</v>
+      </c>
+      <c r="D805" t="n">
+        <v>133</v>
+      </c>
+      <c r="E805" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="n">
+        <v>1</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で失敗した回数</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="n">
+        <v>5</v>
+      </c>
+      <c r="D806" t="n">
+        <v>134</v>
+      </c>
+      <c r="E806" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="n">
+        <v>1</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で防御勝利した回数</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="n">
+        <v>5</v>
+      </c>
+      <c r="D807" t="n">
+        <v>135</v>
+      </c>
+      <c r="E807" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="n">
+        <v>1</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で防御失敗した回数</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr"/>
+      <c r="C808" t="n">
+        <v>5</v>
+      </c>
+      <c r="D808" t="n">
+        <v>136</v>
+      </c>
+      <c r="E808" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="n">
+        <v>1</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/Achieve.xlsx
+++ b/data/xlsx/Achieve.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G646" t="inlineStr"/>
@@ -21321,60 +21321,60 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>AID_通信対戦数初回</t>
+          <t>AID_神竜の章０２クリア</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>首次进行异界的试炼。</t>
+          <t>已完成{[0100]}《{[0101]}》。</t>
         </is>
       </c>
       <c r="C647" t="n">
         <v>4</v>
       </c>
       <c r="D647" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E647" t="n">
-        <v>1</v>
-      </c>
-      <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr">
-        <is>
-          <t>次</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr"/>
       <c r="H647" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>AID_通信対戦数10回</t>
+          <t>AID_神竜の章０４クリア</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次异界的试炼。</t>
+          <t>已完成{[0100]}《{[0101]}》。</t>
         </is>
       </c>
       <c r="C648" t="n">
         <v>4</v>
       </c>
       <c r="D648" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E648" t="n">
-        <v>10</v>
-      </c>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr">
-        <is>
-          <t>次</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr"/>
       <c r="H648" t="n">
         <v>100</v>
       </c>
@@ -21383,43 +21383,43 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>AID_通信対戦数20回</t>
+          <t>AID_神竜の章０５クリア</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次异界的试炼。</t>
+          <t>已完成{[0100]}《{[0101]}》。</t>
         </is>
       </c>
       <c r="C649" t="n">
         <v>4</v>
       </c>
       <c r="D649" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E649" t="n">
-        <v>20</v>
-      </c>
-      <c r="F649" t="inlineStr"/>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>次</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr"/>
       <c r="H649" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>AID_通信対戦数30回</t>
+          <t>AID_通信対戦数初回</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次异界的试炼。</t>
+          <t>首次进行异界的试炼。</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -21429,7 +21429,7 @@
         <v>80</v>
       </c>
       <c r="E650" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
@@ -21438,14 +21438,14 @@
         </is>
       </c>
       <c r="H650" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>AID_通信対戦数40回</t>
+          <t>AID_通信対戦数10回</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -21460,7 +21460,7 @@
         <v>80</v>
       </c>
       <c r="E651" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr">
@@ -21469,14 +21469,14 @@
         </is>
       </c>
       <c r="H651" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>AID_通信対戦数50回</t>
+          <t>AID_通信対戦数20回</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -21491,7 +21491,7 @@
         <v>80</v>
       </c>
       <c r="E652" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr">
@@ -21500,14 +21500,14 @@
         </is>
       </c>
       <c r="H652" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>AID_通信対戦数60回</t>
+          <t>AID_通信対戦数30回</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -21522,7 +21522,7 @@
         <v>80</v>
       </c>
       <c r="E653" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr">
@@ -21531,14 +21531,14 @@
         </is>
       </c>
       <c r="H653" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>AID_通信対戦数70回</t>
+          <t>AID_通信対戦数40回</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>80</v>
       </c>
       <c r="E654" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
@@ -21562,14 +21562,14 @@
         </is>
       </c>
       <c r="H654" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>AID_通信対戦数80回</t>
+          <t>AID_通信対戦数50回</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -21584,7 +21584,7 @@
         <v>80</v>
       </c>
       <c r="E655" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
@@ -21593,14 +21593,14 @@
         </is>
       </c>
       <c r="H655" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>AID_通信対戦数90回</t>
+          <t>AID_通信対戦数60回</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -21615,7 +21615,7 @@
         <v>80</v>
       </c>
       <c r="E656" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
@@ -21624,14 +21624,14 @@
         </is>
       </c>
       <c r="H656" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>AID_通信対戦数100回</t>
+          <t>AID_通信対戦数70回</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -21646,7 +21646,7 @@
         <v>80</v>
       </c>
       <c r="E657" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
@@ -21655,14 +21655,14 @@
         </is>
       </c>
       <c r="H657" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>AID_通信対戦数110回</t>
+          <t>AID_通信対戦数80回</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -21677,7 +21677,7 @@
         <v>80</v>
       </c>
       <c r="E658" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F658" t="inlineStr"/>
       <c r="G658" t="inlineStr">
@@ -21686,14 +21686,14 @@
         </is>
       </c>
       <c r="H658" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="I658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>AID_通信対戦数120回</t>
+          <t>AID_通信対戦数90回</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -21708,7 +21708,7 @@
         <v>80</v>
       </c>
       <c r="E659" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F659" t="inlineStr"/>
       <c r="G659" t="inlineStr">
@@ -21717,14 +21717,14 @@
         </is>
       </c>
       <c r="H659" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>AID_通信対戦数130回</t>
+          <t>AID_通信対戦数100回</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -21739,7 +21739,7 @@
         <v>80</v>
       </c>
       <c r="E660" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F660" t="inlineStr"/>
       <c r="G660" t="inlineStr">
@@ -21748,14 +21748,14 @@
         </is>
       </c>
       <c r="H660" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="I660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>AID_通信対戦数140回</t>
+          <t>AID_通信対戦数110回</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -21770,7 +21770,7 @@
         <v>80</v>
       </c>
       <c r="E661" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F661" t="inlineStr"/>
       <c r="G661" t="inlineStr">
@@ -21779,14 +21779,14 @@
         </is>
       </c>
       <c r="H661" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="I661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>AID_通信対戦数150回</t>
+          <t>AID_通信対戦数120回</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -21801,7 +21801,7 @@
         <v>80</v>
       </c>
       <c r="E662" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr">
@@ -21810,14 +21810,14 @@
         </is>
       </c>
       <c r="H662" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>AID_通信対戦数160回</t>
+          <t>AID_通信対戦数130回</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -21832,7 +21832,7 @@
         <v>80</v>
       </c>
       <c r="E663" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F663" t="inlineStr"/>
       <c r="G663" t="inlineStr">
@@ -21841,14 +21841,14 @@
         </is>
       </c>
       <c r="H663" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>AID_通信対戦数170回</t>
+          <t>AID_通信対戦数140回</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -21863,7 +21863,7 @@
         <v>80</v>
       </c>
       <c r="E664" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F664" t="inlineStr"/>
       <c r="G664" t="inlineStr">
@@ -21872,14 +21872,14 @@
         </is>
       </c>
       <c r="H664" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="I664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>AID_通信対戦数180回</t>
+          <t>AID_通信対戦数150回</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -21894,7 +21894,7 @@
         <v>80</v>
       </c>
       <c r="E665" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="inlineStr">
@@ -21903,14 +21903,14 @@
         </is>
       </c>
       <c r="H665" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="I665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>AID_通信対戦数190回</t>
+          <t>AID_通信対戦数160回</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -21925,7 +21925,7 @@
         <v>80</v>
       </c>
       <c r="E666" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F666" t="inlineStr"/>
       <c r="G666" t="inlineStr">
@@ -21934,14 +21934,14 @@
         </is>
       </c>
       <c r="H666" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="I666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>AID_通信対戦数200回</t>
+          <t>AID_通信対戦数170回</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -21956,7 +21956,7 @@
         <v>80</v>
       </c>
       <c r="E667" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
@@ -21965,29 +21965,29 @@
         </is>
       </c>
       <c r="H667" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　初回</t>
+          <t>AID_通信対戦数180回</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>首次于异界的试炼中获胜。</t>
+          <t>挑战了{[0100]}次异界的试炼。</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>4</v>
       </c>
       <c r="D668" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E668" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
@@ -21996,29 +21996,29 @@
         </is>
       </c>
       <c r="H668" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="I668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　10回</t>
+          <t>AID_通信対戦数190回</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>于异界的试炼中获胜了{[0100]}次。</t>
+          <t>挑战了{[0100]}次异界的试炼。</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>4</v>
       </c>
       <c r="D669" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E669" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
@@ -22027,29 +22027,29 @@
         </is>
       </c>
       <c r="H669" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="I669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　20回</t>
+          <t>AID_通信対戦数200回</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>于异界的试炼中获胜了{[0100]}次。</t>
+          <t>挑战了{[0100]}次异界的试炼。</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>4</v>
       </c>
       <c r="D670" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E670" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
@@ -22058,19 +22058,19 @@
         </is>
       </c>
       <c r="H670" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　30回</t>
+          <t>AID_通信対戦勝利数　初回</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>于异界的试炼中获胜了{[0100]}次。</t>
+          <t>首次于异界的试炼中获胜。</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -22080,7 +22080,7 @@
         <v>81</v>
       </c>
       <c r="E671" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F671" t="inlineStr"/>
       <c r="G671" t="inlineStr">
@@ -22089,14 +22089,14 @@
         </is>
       </c>
       <c r="H671" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　40回</t>
+          <t>AID_通信対戦勝利数　10回</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -22111,7 +22111,7 @@
         <v>81</v>
       </c>
       <c r="E672" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F672" t="inlineStr"/>
       <c r="G672" t="inlineStr">
@@ -22120,14 +22120,14 @@
         </is>
       </c>
       <c r="H672" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　50回</t>
+          <t>AID_通信対戦勝利数　20回</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -22142,7 +22142,7 @@
         <v>81</v>
       </c>
       <c r="E673" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr">
@@ -22151,14 +22151,14 @@
         </is>
       </c>
       <c r="H673" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　60回</t>
+          <t>AID_通信対戦勝利数　30回</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -22173,7 +22173,7 @@
         <v>81</v>
       </c>
       <c r="E674" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F674" t="inlineStr"/>
       <c r="G674" t="inlineStr">
@@ -22182,14 +22182,14 @@
         </is>
       </c>
       <c r="H674" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　70回</t>
+          <t>AID_通信対戦勝利数　40回</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -22204,7 +22204,7 @@
         <v>81</v>
       </c>
       <c r="E675" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr">
@@ -22213,14 +22213,14 @@
         </is>
       </c>
       <c r="H675" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　80回</t>
+          <t>AID_通信対戦勝利数　50回</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -22235,7 +22235,7 @@
         <v>81</v>
       </c>
       <c r="E676" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr">
@@ -22244,14 +22244,14 @@
         </is>
       </c>
       <c r="H676" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　90回</t>
+          <t>AID_通信対戦勝利数　60回</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -22266,7 +22266,7 @@
         <v>81</v>
       </c>
       <c r="E677" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
@@ -22275,14 +22275,14 @@
         </is>
       </c>
       <c r="H677" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>AID_通信対戦勝利数　100回</t>
+          <t>AID_通信対戦勝利数　70回</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -22297,7 +22297,7 @@
         <v>81</v>
       </c>
       <c r="E678" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
@@ -22306,29 +22306,29 @@
         </is>
       </c>
       <c r="H678" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　初回</t>
+          <t>AID_通信対戦勝利数　80回</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>首次进行续战的试炼。</t>
+          <t>于异界的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>4</v>
       </c>
       <c r="D679" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E679" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F679" t="inlineStr"/>
       <c r="G679" t="inlineStr">
@@ -22337,29 +22337,29 @@
         </is>
       </c>
       <c r="H679" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="I679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　10回</t>
+          <t>AID_通信対戦勝利数　90回</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次续战的试炼。</t>
+          <t>于异界的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>4</v>
       </c>
       <c r="D680" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E680" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F680" t="inlineStr"/>
       <c r="G680" t="inlineStr">
@@ -22368,29 +22368,29 @@
         </is>
       </c>
       <c r="H680" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　20回</t>
+          <t>AID_通信対戦勝利数　100回</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次续战的试炼。</t>
+          <t>于异界的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>4</v>
       </c>
       <c r="D681" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E681" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F681" t="inlineStr"/>
       <c r="G681" t="inlineStr">
@@ -22399,19 +22399,19 @@
         </is>
       </c>
       <c r="H681" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　30回</t>
+          <t>AID_リレーバトル数　初回</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次续战的试炼。</t>
+          <t>首次进行续战的试炼。</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -22421,7 +22421,7 @@
         <v>82</v>
       </c>
       <c r="E682" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F682" t="inlineStr"/>
       <c r="G682" t="inlineStr">
@@ -22430,14 +22430,14 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　40回</t>
+          <t>AID_リレーバトル数　10回</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -22452,7 +22452,7 @@
         <v>82</v>
       </c>
       <c r="E683" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
@@ -22461,14 +22461,14 @@
         </is>
       </c>
       <c r="H683" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　50回</t>
+          <t>AID_リレーバトル数　20回</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -22483,7 +22483,7 @@
         <v>82</v>
       </c>
       <c r="E684" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F684" t="inlineStr"/>
       <c r="G684" t="inlineStr">
@@ -22492,14 +22492,14 @@
         </is>
       </c>
       <c r="H684" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　60回</t>
+          <t>AID_リレーバトル数　30回</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -22514,7 +22514,7 @@
         <v>82</v>
       </c>
       <c r="E685" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr">
@@ -22523,14 +22523,14 @@
         </is>
       </c>
       <c r="H685" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　70回</t>
+          <t>AID_リレーバトル数　40回</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -22545,7 +22545,7 @@
         <v>82</v>
       </c>
       <c r="E686" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr">
@@ -22554,14 +22554,14 @@
         </is>
       </c>
       <c r="H686" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　80回</t>
+          <t>AID_リレーバトル数　50回</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -22576,7 +22576,7 @@
         <v>82</v>
       </c>
       <c r="E687" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr">
@@ -22585,14 +22585,14 @@
         </is>
       </c>
       <c r="H687" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　90回</t>
+          <t>AID_リレーバトル数　60回</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>82</v>
       </c>
       <c r="E688" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="inlineStr">
@@ -22616,14 +22616,14 @@
         </is>
       </c>
       <c r="H688" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　100回</t>
+          <t>AID_リレーバトル数　70回</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -22638,7 +22638,7 @@
         <v>82</v>
       </c>
       <c r="E689" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
@@ -22647,14 +22647,14 @@
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　110回</t>
+          <t>AID_リレーバトル数　80回</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -22669,7 +22669,7 @@
         <v>82</v>
       </c>
       <c r="E690" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F690" t="inlineStr"/>
       <c r="G690" t="inlineStr">
@@ -22678,14 +22678,14 @@
         </is>
       </c>
       <c r="H690" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="I690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　120回</t>
+          <t>AID_リレーバトル数　90回</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -22700,7 +22700,7 @@
         <v>82</v>
       </c>
       <c r="E691" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F691" t="inlineStr"/>
       <c r="G691" t="inlineStr">
@@ -22709,14 +22709,14 @@
         </is>
       </c>
       <c r="H691" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　130回</t>
+          <t>AID_リレーバトル数　100回</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -22731,7 +22731,7 @@
         <v>82</v>
       </c>
       <c r="E692" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F692" t="inlineStr"/>
       <c r="G692" t="inlineStr">
@@ -22740,14 +22740,14 @@
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="I692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　140回</t>
+          <t>AID_リレーバトル数　110回</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -22762,7 +22762,7 @@
         <v>82</v>
       </c>
       <c r="E693" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
@@ -22771,14 +22771,14 @@
         </is>
       </c>
       <c r="H693" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="I693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　150回</t>
+          <t>AID_リレーバトル数　120回</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -22793,7 +22793,7 @@
         <v>82</v>
       </c>
       <c r="E694" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr">
@@ -22802,14 +22802,14 @@
         </is>
       </c>
       <c r="H694" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　160回</t>
+          <t>AID_リレーバトル数　130回</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -22824,7 +22824,7 @@
         <v>82</v>
       </c>
       <c r="E695" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F695" t="inlineStr"/>
       <c r="G695" t="inlineStr">
@@ -22833,14 +22833,14 @@
         </is>
       </c>
       <c r="H695" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="I695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　170回</t>
+          <t>AID_リレーバトル数　140回</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -22855,7 +22855,7 @@
         <v>82</v>
       </c>
       <c r="E696" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr">
@@ -22864,14 +22864,14 @@
         </is>
       </c>
       <c r="H696" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="I696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　180回</t>
+          <t>AID_リレーバトル数　150回</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -22886,7 +22886,7 @@
         <v>82</v>
       </c>
       <c r="E697" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
@@ -22895,14 +22895,14 @@
         </is>
       </c>
       <c r="H697" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="I697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　190回</t>
+          <t>AID_リレーバトル数　160回</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -22917,7 +22917,7 @@
         <v>82</v>
       </c>
       <c r="E698" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
@@ -22926,14 +22926,14 @@
         </is>
       </c>
       <c r="H698" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="I698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>AID_リレーバトル数　200回</t>
+          <t>AID_リレーバトル数　170回</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -22948,7 +22948,7 @@
         <v>82</v>
       </c>
       <c r="E699" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr">
@@ -22957,29 +22957,29 @@
         </is>
       </c>
       <c r="H699" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　初回</t>
+          <t>AID_リレーバトル数　180回</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>首次于续战的试炼中获胜。</t>
+          <t>挑战了{[0100]}次续战的试炼。</t>
         </is>
       </c>
       <c r="C700" t="n">
         <v>4</v>
       </c>
       <c r="D700" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E700" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="inlineStr">
@@ -22988,29 +22988,29 @@
         </is>
       </c>
       <c r="H700" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="I700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　10回</t>
+          <t>AID_リレーバトル数　190回</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>于续战的试炼中获胜了{[0100]}次。</t>
+          <t>挑战了{[0100]}次续战的试炼。</t>
         </is>
       </c>
       <c r="C701" t="n">
         <v>4</v>
       </c>
       <c r="D701" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E701" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="inlineStr">
@@ -23019,29 +23019,29 @@
         </is>
       </c>
       <c r="H701" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="I701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　20回</t>
+          <t>AID_リレーバトル数　200回</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>于续战的试炼中获胜了{[0100]}次。</t>
+          <t>挑战了{[0100]}次续战的试炼。</t>
         </is>
       </c>
       <c r="C702" t="n">
         <v>4</v>
       </c>
       <c r="D702" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E702" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr">
@@ -23050,19 +23050,19 @@
         </is>
       </c>
       <c r="H702" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　30回</t>
+          <t>AID_リレーバトル勝利数　初回</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>于续战的试炼中获胜了{[0100]}次。</t>
+          <t>首次于续战的试炼中获胜。</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -23072,7 +23072,7 @@
         <v>83</v>
       </c>
       <c r="E703" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr">
@@ -23081,14 +23081,14 @@
         </is>
       </c>
       <c r="H703" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　40回</t>
+          <t>AID_リレーバトル勝利数　10回</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -23103,7 +23103,7 @@
         <v>83</v>
       </c>
       <c r="E704" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr">
@@ -23112,14 +23112,14 @@
         </is>
       </c>
       <c r="H704" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　50回</t>
+          <t>AID_リレーバトル勝利数　20回</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -23134,7 +23134,7 @@
         <v>83</v>
       </c>
       <c r="E705" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr">
@@ -23143,14 +23143,14 @@
         </is>
       </c>
       <c r="H705" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　60回</t>
+          <t>AID_リレーバトル勝利数　30回</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -23165,7 +23165,7 @@
         <v>83</v>
       </c>
       <c r="E706" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F706" t="inlineStr"/>
       <c r="G706" t="inlineStr">
@@ -23174,14 +23174,14 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　70回</t>
+          <t>AID_リレーバトル勝利数　40回</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -23196,7 +23196,7 @@
         <v>83</v>
       </c>
       <c r="E707" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr">
@@ -23205,14 +23205,14 @@
         </is>
       </c>
       <c r="H707" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　80回</t>
+          <t>AID_リレーバトル勝利数　50回</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -23227,7 +23227,7 @@
         <v>83</v>
       </c>
       <c r="E708" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
@@ -23236,14 +23236,14 @@
         </is>
       </c>
       <c r="H708" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　90回</t>
+          <t>AID_リレーバトル勝利数　60回</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -23258,7 +23258,7 @@
         <v>83</v>
       </c>
       <c r="E709" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr">
@@ -23267,14 +23267,14 @@
         </is>
       </c>
       <c r="H709" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>AID_リレーバトル勝利数　100回</t>
+          <t>AID_リレーバトル勝利数　70回</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -23289,7 +23289,7 @@
         <v>83</v>
       </c>
       <c r="E710" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr">
@@ -23298,112 +23298,112 @@
         </is>
       </c>
       <c r="H710" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク1</t>
+          <t>AID_リレーバトル勝利数　80回</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于续战的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C711" t="n">
         <v>4</v>
       </c>
       <c r="D711" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E711" t="n">
-        <v>1</v>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>绿野的连战</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
       <c r="H711" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="I711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク10</t>
+          <t>AID_リレーバトル勝利数　90回</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于续战的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C712" t="n">
         <v>4</v>
       </c>
       <c r="D712" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E712" t="n">
-        <v>10</v>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>绿野的连战</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
       <c r="H712" t="n">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="I712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク20</t>
+          <t>AID_リレーバトル勝利数　100回</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于续战的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
       <c r="C713" t="n">
         <v>4</v>
       </c>
       <c r="D713" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E713" t="n">
-        <v>20</v>
-      </c>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>绿野的连战</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
       <c r="H713" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="I713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク30</t>
+          <t>AID_連戦マップ１　ランク1</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -23413,7 +23413,7 @@
         <v>84</v>
       </c>
       <c r="E714" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -23422,14 +23422,14 @@
       </c>
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク40</t>
+          <t>AID_連戦マップ１　ランク10</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -23444,7 +23444,7 @@
         <v>84</v>
       </c>
       <c r="E715" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -23453,14 +23453,14 @@
       </c>
       <c r="G715" t="inlineStr"/>
       <c r="H715" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１　ランク50</t>
+          <t>AID_連戦マップ１　ランク20</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -23475,7 +23475,7 @@
         <v>84</v>
       </c>
       <c r="E716" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -23484,45 +23484,45 @@
       </c>
       <c r="G716" t="inlineStr"/>
       <c r="H716" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク1</t>
+          <t>AID_連戦マップ１　ランク30</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C717" t="n">
         <v>4</v>
       </c>
       <c r="D717" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E717" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>花田的连战</t>
+          <t>绿野的连战</t>
         </is>
       </c>
       <c r="G717" t="inlineStr"/>
       <c r="H717" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク10</t>
+          <t>AID_連戦マップ１　ランク40</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -23534,26 +23534,26 @@
         <v>4</v>
       </c>
       <c r="D718" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E718" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>花田的连战</t>
+          <t>绿野的连战</t>
         </is>
       </c>
       <c r="G718" t="inlineStr"/>
       <c r="H718" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク20</t>
+          <t>AID_連戦マップ１　ランク50</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -23565,31 +23565,31 @@
         <v>4</v>
       </c>
       <c r="D719" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E719" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>花田的连战</t>
+          <t>绿野的连战</t>
         </is>
       </c>
       <c r="G719" t="inlineStr"/>
       <c r="H719" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク30</t>
+          <t>AID_連戦マップ２　ランク1</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -23599,7 +23599,7 @@
         <v>85</v>
       </c>
       <c r="E720" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -23608,14 +23608,14 @@
       </c>
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク40</t>
+          <t>AID_連戦マップ２　ランク10</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -23630,7 +23630,7 @@
         <v>85</v>
       </c>
       <c r="E721" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -23639,14 +23639,14 @@
       </c>
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２　ランク50</t>
+          <t>AID_連戦マップ２　ランク20</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>85</v>
       </c>
       <c r="E722" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -23670,45 +23670,45 @@
       </c>
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク1</t>
+          <t>AID_連戦マップ２　ランク30</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C723" t="n">
         <v>4</v>
       </c>
       <c r="D723" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E723" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>高原的连战</t>
+          <t>花田的连战</t>
         </is>
       </c>
       <c r="G723" t="inlineStr"/>
       <c r="H723" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク10</t>
+          <t>AID_連戦マップ２　ランク40</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -23720,26 +23720,26 @@
         <v>4</v>
       </c>
       <c r="D724" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E724" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>高原的连战</t>
+          <t>花田的连战</t>
         </is>
       </c>
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク20</t>
+          <t>AID_連戦マップ２　ランク50</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -23751,31 +23751,31 @@
         <v>4</v>
       </c>
       <c r="D725" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E725" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>高原的连战</t>
+          <t>花田的连战</t>
         </is>
       </c>
       <c r="G725" t="inlineStr"/>
       <c r="H725" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク30</t>
+          <t>AID_連戦マップ３　ランク1</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -23785,7 +23785,7 @@
         <v>86</v>
       </c>
       <c r="E726" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -23794,14 +23794,14 @@
       </c>
       <c r="G726" t="inlineStr"/>
       <c r="H726" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク40</t>
+          <t>AID_連戦マップ３　ランク10</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -23816,7 +23816,7 @@
         <v>86</v>
       </c>
       <c r="E727" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F727" t="inlineStr">
         <is>
@@ -23825,14 +23825,14 @@
       </c>
       <c r="G727" t="inlineStr"/>
       <c r="H727" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３　ランク50</t>
+          <t>AID_連戦マップ３　ランク20</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -23847,7 +23847,7 @@
         <v>86</v>
       </c>
       <c r="E728" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
@@ -23856,45 +23856,45 @@
       </c>
       <c r="G728" t="inlineStr"/>
       <c r="H728" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク1</t>
+          <t>AID_連戦マップ３　ランク30</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C729" t="n">
         <v>4</v>
       </c>
       <c r="D729" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E729" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>雪森林的连战</t>
+          <t>高原的连战</t>
         </is>
       </c>
       <c r="G729" t="inlineStr"/>
       <c r="H729" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク10</t>
+          <t>AID_連戦マップ３　ランク40</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -23906,26 +23906,26 @@
         <v>4</v>
       </c>
       <c r="D730" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E730" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>雪森林的连战</t>
+          <t>高原的连战</t>
         </is>
       </c>
       <c r="G730" t="inlineStr"/>
       <c r="H730" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク20</t>
+          <t>AID_連戦マップ３　ランク50</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -23937,31 +23937,31 @@
         <v>4</v>
       </c>
       <c r="D731" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E731" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>雪森林的连战</t>
+          <t>高原的连战</t>
         </is>
       </c>
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク30</t>
+          <t>AID_連戦マップ４　ランク1</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -23971,7 +23971,7 @@
         <v>87</v>
       </c>
       <c r="E732" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="F732" t="inlineStr">
         <is>
@@ -23980,14 +23980,14 @@
       </c>
       <c r="G732" t="inlineStr"/>
       <c r="H732" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク40</t>
+          <t>AID_連戦マップ４　ランク10</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -24002,7 +24002,7 @@
         <v>87</v>
       </c>
       <c r="E733" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -24011,14 +24011,14 @@
       </c>
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４　ランク50</t>
+          <t>AID_連戦マップ４　ランク20</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -24033,7 +24033,7 @@
         <v>87</v>
       </c>
       <c r="E734" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -24042,45 +24042,45 @@
       </c>
       <c r="G734" t="inlineStr"/>
       <c r="H734" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク1</t>
+          <t>AID_連戦マップ４　ランク30</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C735" t="n">
         <v>4</v>
       </c>
       <c r="D735" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E735" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>沙海的连战</t>
+          <t>雪森林的连战</t>
         </is>
       </c>
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク10</t>
+          <t>AID_連戦マップ４　ランク40</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -24092,26 +24092,26 @@
         <v>4</v>
       </c>
       <c r="D736" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E736" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>沙海的连战</t>
+          <t>雪森林的连战</t>
         </is>
       </c>
       <c r="G736" t="inlineStr"/>
       <c r="H736" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク20</t>
+          <t>AID_連戦マップ４　ランク50</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -24123,31 +24123,31 @@
         <v>4</v>
       </c>
       <c r="D737" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E737" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>沙海的连战</t>
+          <t>雪森林的连战</t>
         </is>
       </c>
       <c r="G737" t="inlineStr"/>
       <c r="H737" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク30</t>
+          <t>AID_連戦マップ５　ランク1</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C738" t="n">
@@ -24157,7 +24157,7 @@
         <v>88</v>
       </c>
       <c r="E738" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -24166,14 +24166,14 @@
       </c>
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク40</t>
+          <t>AID_連戦マップ５　ランク10</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -24188,7 +24188,7 @@
         <v>88</v>
       </c>
       <c r="E739" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -24197,14 +24197,14 @@
       </c>
       <c r="G739" t="inlineStr"/>
       <c r="H739" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５　ランク50</t>
+          <t>AID_連戦マップ５　ランク20</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -24219,7 +24219,7 @@
         <v>88</v>
       </c>
       <c r="E740" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -24228,45 +24228,45 @@
       </c>
       <c r="G740" t="inlineStr"/>
       <c r="H740" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク1</t>
+          <t>AID_連戦マップ５　ランク30</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
       <c r="C741" t="n">
         <v>4</v>
       </c>
       <c r="D741" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E741" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>岩浆的连战</t>
+          <t>沙海的连战</t>
         </is>
       </c>
       <c r="G741" t="inlineStr"/>
       <c r="H741" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク10</t>
+          <t>AID_連戦マップ５　ランク40</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -24278,26 +24278,26 @@
         <v>4</v>
       </c>
       <c r="D742" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E742" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>岩浆的连战</t>
+          <t>沙海的连战</t>
         </is>
       </c>
       <c r="G742" t="inlineStr"/>
       <c r="H742" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク20</t>
+          <t>AID_連戦マップ５　ランク50</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -24309,31 +24309,31 @@
         <v>4</v>
       </c>
       <c r="D743" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E743" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>岩浆的连战</t>
+          <t>沙海的连战</t>
         </is>
       </c>
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク30</t>
+          <t>AID_連戦マップ６　ランク1</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于连战的试炼“{[0100]}”最低难度中大获全胜。</t>
         </is>
       </c>
       <c r="C744" t="n">
@@ -24343,7 +24343,7 @@
         <v>89</v>
       </c>
       <c r="E744" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -24352,14 +24352,14 @@
       </c>
       <c r="G744" t="inlineStr"/>
       <c r="H744" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク40</t>
+          <t>AID_連戦マップ６　ランク10</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -24374,7 +24374,7 @@
         <v>89</v>
       </c>
       <c r="E745" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -24383,14 +24383,14 @@
       </c>
       <c r="G745" t="inlineStr"/>
       <c r="H745" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６　ランク50</t>
+          <t>AID_連戦マップ６　ランク20</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -24405,7 +24405,7 @@
         <v>89</v>
       </c>
       <c r="E746" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F746" t="inlineStr">
         <is>
@@ -24414,83 +24414,107 @@
       </c>
       <c r="G746" t="inlineStr"/>
       <c r="H746" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>AID_クラスチェンジした回数</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr"/>
+          <t>AID_連戦マップ６　ランク30</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+        </is>
+      </c>
       <c r="C747" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D747" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E747" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F747" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>岩浆的连战</t>
+        </is>
+      </c>
       <c r="G747" t="inlineStr"/>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せノーマルをプレイした回数</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr"/>
+          <t>AID_連戦マップ６　ランク40</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+        </is>
+      </c>
       <c r="C748" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D748" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E748" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F748" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>岩浆的连战</t>
+        </is>
+      </c>
       <c r="G748" t="inlineStr"/>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せハードをプレイした回数</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr"/>
+          <t>AID_連戦マップ６　ランク50</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+        </is>
+      </c>
       <c r="C749" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D749" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E749" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F749" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>岩浆的连战</t>
+        </is>
+      </c>
       <c r="G749" t="inlineStr"/>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せエキスパートをプレイした回数</t>
+          <t>AID_クラスチェンジした回数</t>
         </is>
       </c>
       <c r="B750" t="inlineStr"/>
@@ -24498,7 +24522,7 @@
         <v>5</v>
       </c>
       <c r="D750" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E750" t="n">
         <v>-1</v>
@@ -24513,7 +24537,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>AID_腕立て伏せマッスルをプレイした回数</t>
+          <t>AID_腕立て伏せノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -24521,7 +24545,7 @@
         <v>5</v>
       </c>
       <c r="D751" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E751" t="n">
         <v>-1</v>
@@ -24536,7 +24560,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>AID_腹筋ノーマルをプレイした回数</t>
+          <t>AID_腕立て伏せハードをプレイした回数</t>
         </is>
       </c>
       <c r="B752" t="inlineStr"/>
@@ -24544,7 +24568,7 @@
         <v>5</v>
       </c>
       <c r="D752" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E752" t="n">
         <v>-1</v>
@@ -24559,7 +24583,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>AID_腹筋ハードをプレイした回数</t>
+          <t>AID_腕立て伏せエキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B753" t="inlineStr"/>
@@ -24567,7 +24591,7 @@
         <v>5</v>
       </c>
       <c r="D753" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E753" t="n">
         <v>-1</v>
@@ -24582,7 +24606,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>AID_腹筋エキスパートをプレイした回数</t>
+          <t>AID_腕立て伏せマッスルをプレイした回数</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -24590,7 +24614,7 @@
         <v>5</v>
       </c>
       <c r="D754" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E754" t="n">
         <v>-1</v>
@@ -24605,7 +24629,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>AID_腹筋マッスルをプレイした回数</t>
+          <t>AID_腹筋ノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B755" t="inlineStr"/>
@@ -24613,7 +24637,7 @@
         <v>5</v>
       </c>
       <c r="D755" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E755" t="n">
         <v>-1</v>
@@ -24628,7 +24652,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>AID_スクワットノーマルをプレイした回数</t>
+          <t>AID_腹筋ハードをプレイした回数</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -24636,7 +24660,7 @@
         <v>5</v>
       </c>
       <c r="D756" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E756" t="n">
         <v>-1</v>
@@ -24651,7 +24675,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>AID_スクワットハードをプレイした回数</t>
+          <t>AID_腹筋エキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B757" t="inlineStr"/>
@@ -24659,7 +24683,7 @@
         <v>5</v>
       </c>
       <c r="D757" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E757" t="n">
         <v>-1</v>
@@ -24674,7 +24698,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>AID_スクワットエキスパートをプレイした回数</t>
+          <t>AID_腹筋マッスルをプレイした回数</t>
         </is>
       </c>
       <c r="B758" t="inlineStr"/>
@@ -24682,7 +24706,7 @@
         <v>5</v>
       </c>
       <c r="D758" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E758" t="n">
         <v>-1</v>
@@ -24697,7 +24721,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>AID_スクワットマッスルをプレイした回数</t>
+          <t>AID_スクワットノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -24705,7 +24729,7 @@
         <v>5</v>
       </c>
       <c r="D759" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E759" t="n">
         <v>-1</v>
@@ -24720,7 +24744,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>AID_ドラゴンシューターノーマルをプレイした回数</t>
+          <t>AID_スクワットハードをプレイした回数</t>
         </is>
       </c>
       <c r="B760" t="inlineStr"/>
@@ -24728,7 +24752,7 @@
         <v>5</v>
       </c>
       <c r="D760" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E760" t="n">
         <v>-1</v>
@@ -24743,7 +24767,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>AID_ドラゴンシューターハードをプレイした回数</t>
+          <t>AID_スクワットエキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -24751,7 +24775,7 @@
         <v>5</v>
       </c>
       <c r="D761" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E761" t="n">
         <v>-1</v>
@@ -24766,7 +24790,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>AID_ドラゴンシューターエキスパートをプレイした回数</t>
+          <t>AID_スクワットマッスルをプレイした回数</t>
         </is>
       </c>
       <c r="B762" t="inlineStr"/>
@@ -24774,7 +24798,7 @@
         <v>5</v>
       </c>
       <c r="D762" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E762" t="n">
         <v>-1</v>
@@ -24789,7 +24813,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>AID_小魚用竿で釣りした回数</t>
+          <t>AID_ドラゴンシューターノーマルをプレイした回数</t>
         </is>
       </c>
       <c r="B763" t="inlineStr"/>
@@ -24797,7 +24821,7 @@
         <v>5</v>
       </c>
       <c r="D763" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E763" t="n">
         <v>-1</v>
@@ -24812,7 +24836,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>AID_頑丈竿で釣りした回数</t>
+          <t>AID_ドラゴンシューターハードをプレイした回数</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -24820,7 +24844,7 @@
         <v>5</v>
       </c>
       <c r="D764" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E764" t="n">
         <v>-1</v>
@@ -24835,7 +24859,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>AID_万能竿で釣りした回数</t>
+          <t>AID_ドラゴンシューターエキスパートをプレイした回数</t>
         </is>
       </c>
       <c r="B765" t="inlineStr"/>
@@ -24843,7 +24867,7 @@
         <v>5</v>
       </c>
       <c r="D765" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E765" t="n">
         <v>-1</v>
@@ -24858,7 +24882,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>AID_マルスの指輪を磨いた回数</t>
+          <t>AID_小魚用竿で釣りした回数</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -24866,16 +24890,12 @@
         <v>5</v>
       </c>
       <c r="D766" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E766" t="n">
         <v>-1</v>
       </c>
-      <c r="F766" t="inlineStr">
-        <is>
-          <t>GID_マルス</t>
-        </is>
-      </c>
+      <c r="F766" t="inlineStr"/>
       <c r="G766" t="inlineStr"/>
       <c r="H766" t="n">
         <v>1</v>
@@ -24885,7 +24905,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>AID_シグルドの指輪を磨いた回数</t>
+          <t>AID_頑丈竿で釣りした回数</t>
         </is>
       </c>
       <c r="B767" t="inlineStr"/>
@@ -24893,16 +24913,12 @@
         <v>5</v>
       </c>
       <c r="D767" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E767" t="n">
         <v>-1</v>
       </c>
-      <c r="F767" t="inlineStr">
-        <is>
-          <t>GID_シグルド</t>
-        </is>
-      </c>
+      <c r="F767" t="inlineStr"/>
       <c r="G767" t="inlineStr"/>
       <c r="H767" t="n">
         <v>1</v>
@@ -24912,7 +24928,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>AID_セリカの指輪を磨いた回数</t>
+          <t>AID_万能竿で釣りした回数</t>
         </is>
       </c>
       <c r="B768" t="inlineStr"/>
@@ -24920,16 +24936,12 @@
         <v>5</v>
       </c>
       <c r="D768" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E768" t="n">
         <v>-1</v>
       </c>
-      <c r="F768" t="inlineStr">
-        <is>
-          <t>GID_セリカ</t>
-        </is>
-      </c>
+      <c r="F768" t="inlineStr"/>
       <c r="G768" t="inlineStr"/>
       <c r="H768" t="n">
         <v>1</v>
@@ -24939,7 +24951,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>AID_ミカヤの指輪を磨いた回数</t>
+          <t>AID_マルスの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -24954,7 +24966,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>GID_ミカヤ</t>
+          <t>GID_マルス</t>
         </is>
       </c>
       <c r="G769" t="inlineStr"/>
@@ -24966,7 +24978,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>AID_ロイの指輪を磨いた回数</t>
+          <t>AID_シグルドの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B770" t="inlineStr"/>
@@ -24981,7 +24993,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>GID_ロイ</t>
+          <t>GID_シグルド</t>
         </is>
       </c>
       <c r="G770" t="inlineStr"/>
@@ -24993,7 +25005,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>AID_リーフの指輪を磨いた回数</t>
+          <t>AID_セリカの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -25008,7 +25020,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>GID_リーフ</t>
+          <t>GID_セリカ</t>
         </is>
       </c>
       <c r="G771" t="inlineStr"/>
@@ -25020,7 +25032,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>AID_ルキナの指輪を磨いた回数</t>
+          <t>AID_ミカヤの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B772" t="inlineStr"/>
@@ -25035,7 +25047,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>GID_ルキナ</t>
+          <t>GID_ミカヤ</t>
         </is>
       </c>
       <c r="G772" t="inlineStr"/>
@@ -25047,7 +25059,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>AID_リンの指輪を磨いた回数</t>
+          <t>AID_ロイの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B773" t="inlineStr"/>
@@ -25062,7 +25074,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>GID_ロイ</t>
         </is>
       </c>
       <c r="G773" t="inlineStr"/>
@@ -25074,7 +25086,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>AID_アイクの指輪を磨いた回数</t>
+          <t>AID_リーフの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -25089,7 +25101,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>GID_アイク</t>
+          <t>GID_リーフ</t>
         </is>
       </c>
       <c r="G774" t="inlineStr"/>
@@ -25101,7 +25113,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>AID_ベレトの指輪を磨いた回数</t>
+          <t>AID_ルキナの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B775" t="inlineStr"/>
@@ -25116,7 +25128,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>GID_ベレト</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
       <c r="G775" t="inlineStr"/>
@@ -25128,7 +25140,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>AID_カムイの指輪を磨いた回数</t>
+          <t>AID_リンの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -25143,7 +25155,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>GID_カムイ</t>
+          <t>GID_リン</t>
         </is>
       </c>
       <c r="G776" t="inlineStr"/>
@@ -25155,7 +25167,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>AID_エイリークの指輪を磨いた回数</t>
+          <t>AID_アイクの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B777" t="inlineStr"/>
@@ -25170,7 +25182,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>GID_エイリーク</t>
+          <t>GID_アイク</t>
         </is>
       </c>
       <c r="G777" t="inlineStr"/>
@@ -25182,7 +25194,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>AID_エーデルガルトの指輪を磨いた回数</t>
+          <t>AID_ベレトの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B778" t="inlineStr"/>
@@ -25197,7 +25209,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>GID_エーデルガルト</t>
+          <t>GID_ベレト</t>
         </is>
       </c>
       <c r="G778" t="inlineStr"/>
@@ -25209,7 +25221,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>AID_ディミトリの指輪を磨いた回数</t>
+          <t>AID_カムイの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -25224,7 +25236,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>GID_ディミトリ</t>
+          <t>GID_カムイ</t>
         </is>
       </c>
       <c r="G779" t="inlineStr"/>
@@ -25236,7 +25248,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>AID_クロードの指輪を磨いた回数</t>
+          <t>AID_エイリークの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B780" t="inlineStr"/>
@@ -25251,7 +25263,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>GID_クロード</t>
+          <t>GID_エイリーク</t>
         </is>
       </c>
       <c r="G780" t="inlineStr"/>
@@ -25263,7 +25275,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>AID_チキの指輪を磨いた回数</t>
+          <t>AID_エーデルガルトの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -25278,7 +25290,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>GID_チキ</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
       <c r="G781" t="inlineStr"/>
@@ -25290,7 +25302,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１挑戦する回数</t>
+          <t>AID_ディミトリの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B782" t="inlineStr"/>
@@ -25298,12 +25310,16 @@
         <v>5</v>
       </c>
       <c r="D782" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E782" t="n">
         <v>-1</v>
       </c>
-      <c r="F782" t="inlineStr"/>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
       <c r="G782" t="inlineStr"/>
       <c r="H782" t="n">
         <v>1</v>
@@ -25313,7 +25329,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２挑戦する回数</t>
+          <t>AID_クロードの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B783" t="inlineStr"/>
@@ -25321,12 +25337,16 @@
         <v>5</v>
       </c>
       <c r="D783" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E783" t="n">
         <v>-1</v>
       </c>
-      <c r="F783" t="inlineStr"/>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="n">
         <v>1</v>
@@ -25336,7 +25356,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３挑戦する回数</t>
+          <t>AID_チキの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -25344,12 +25364,16 @@
         <v>5</v>
       </c>
       <c r="D784" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E784" t="n">
         <v>-1</v>
       </c>
-      <c r="F784" t="inlineStr"/>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
       <c r="G784" t="inlineStr"/>
       <c r="H784" t="n">
         <v>1</v>
@@ -25359,7 +25383,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４挑戦する回数</t>
+          <t>AID_ヘクトルの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B785" t="inlineStr"/>
@@ -25367,12 +25391,16 @@
         <v>5</v>
       </c>
       <c r="D785" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E785" t="n">
         <v>-1</v>
       </c>
-      <c r="F785" t="inlineStr"/>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
       <c r="G785" t="inlineStr"/>
       <c r="H785" t="n">
         <v>1</v>
@@ -25382,7 +25410,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５挑戦する回数</t>
+          <t>AID_セネリオの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -25390,12 +25418,16 @@
         <v>5</v>
       </c>
       <c r="D786" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E786" t="n">
         <v>-1</v>
       </c>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
       <c r="G786" t="inlineStr"/>
       <c r="H786" t="n">
         <v>1</v>
@@ -25405,7 +25437,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６挑戦する回数</t>
+          <t>AID_カミラの指輪を磨いた回数</t>
         </is>
       </c>
       <c r="B787" t="inlineStr"/>
@@ -25413,12 +25445,16 @@
         <v>5</v>
       </c>
       <c r="D787" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E787" t="n">
         <v>-1</v>
       </c>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
       <c r="G787" t="inlineStr"/>
       <c r="H787" t="n">
         <v>1</v>
@@ -25428,7 +25464,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>AID_連戦マップ１クリアした回数</t>
+          <t>AID_連戦マップ１挑戦する回数</t>
         </is>
       </c>
       <c r="B788" t="inlineStr"/>
@@ -25436,7 +25472,7 @@
         <v>5</v>
       </c>
       <c r="D788" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E788" t="n">
         <v>-1</v>
@@ -25451,7 +25487,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>AID_連戦マップ２クリアした回数</t>
+          <t>AID_連戦マップ２挑戦する回数</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -25459,7 +25495,7 @@
         <v>5</v>
       </c>
       <c r="D789" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E789" t="n">
         <v>-1</v>
@@ -25474,7 +25510,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>AID_連戦マップ３クリアした回数</t>
+          <t>AID_連戦マップ３挑戦する回数</t>
         </is>
       </c>
       <c r="B790" t="inlineStr"/>
@@ -25482,7 +25518,7 @@
         <v>5</v>
       </c>
       <c r="D790" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E790" t="n">
         <v>-1</v>
@@ -25497,7 +25533,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>AID_連戦マップ４クリアした回数</t>
+          <t>AID_連戦マップ４挑戦する回数</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -25505,7 +25541,7 @@
         <v>5</v>
       </c>
       <c r="D791" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E791" t="n">
         <v>-1</v>
@@ -25520,7 +25556,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>AID_連戦マップ５クリアした回数</t>
+          <t>AID_連戦マップ５挑戦する回数</t>
         </is>
       </c>
       <c r="B792" t="inlineStr"/>
@@ -25528,7 +25564,7 @@
         <v>5</v>
       </c>
       <c r="D792" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E792" t="n">
         <v>-1</v>
@@ -25543,7 +25579,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>AID_連戦マップ６クリアした回数</t>
+          <t>AID_連戦マップ６挑戦する回数</t>
         </is>
       </c>
       <c r="B793" t="inlineStr"/>
@@ -25551,7 +25587,7 @@
         <v>5</v>
       </c>
       <c r="D793" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E793" t="n">
         <v>-1</v>
@@ -25566,7 +25602,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>AID_リレーバトル１開始した回数</t>
+          <t>AID_連戦マップ１クリアした回数</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -25574,7 +25610,7 @@
         <v>5</v>
       </c>
       <c r="D794" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E794" t="n">
         <v>-1</v>
@@ -25589,7 +25625,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>AID_リレーバトル２開始した回数</t>
+          <t>AID_連戦マップ２クリアした回数</t>
         </is>
       </c>
       <c r="B795" t="inlineStr"/>
@@ -25597,7 +25633,7 @@
         <v>5</v>
       </c>
       <c r="D795" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E795" t="n">
         <v>-1</v>
@@ -25612,7 +25648,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>AID_リレーバトル３開始した回数</t>
+          <t>AID_連戦マップ３クリアした回数</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -25620,7 +25656,7 @@
         <v>5</v>
       </c>
       <c r="D796" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E796" t="n">
         <v>-1</v>
@@ -25635,7 +25671,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>AID_リレーバトル４開始した回数</t>
+          <t>AID_連戦マップ４クリアした回数</t>
         </is>
       </c>
       <c r="B797" t="inlineStr"/>
@@ -25643,7 +25679,7 @@
         <v>5</v>
       </c>
       <c r="D797" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E797" t="n">
         <v>-1</v>
@@ -25658,7 +25694,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>AID_リレーバトル５開始した回数</t>
+          <t>AID_連戦マップ５クリアした回数</t>
         </is>
       </c>
       <c r="B798" t="inlineStr"/>
@@ -25666,7 +25702,7 @@
         <v>5</v>
       </c>
       <c r="D798" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E798" t="n">
         <v>-1</v>
@@ -25681,7 +25717,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>AID_リレーバトル６開始した回数</t>
+          <t>AID_連戦マップ６クリアした回数</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -25689,7 +25725,7 @@
         <v>5</v>
       </c>
       <c r="D799" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E799" t="n">
         <v>-1</v>
@@ -25704,7 +25740,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>AID_リレーバトル引き継いだ回数</t>
+          <t>AID_リレーバトル１開始した回数</t>
         </is>
       </c>
       <c r="B800" t="inlineStr"/>
@@ -25712,7 +25748,7 @@
         <v>5</v>
       </c>
       <c r="D800" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E800" t="n">
         <v>-1</v>
@@ -25727,7 +25763,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>AID_お手軽対戦をプレイした回数</t>
+          <t>AID_リレーバトル２開始した回数</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -25735,7 +25771,7 @@
         <v>5</v>
       </c>
       <c r="D801" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E801" t="n">
         <v>-1</v>
@@ -25750,7 +25786,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>AID_お手軽対戦で勝利した回数</t>
+          <t>AID_リレーバトル３開始した回数</t>
         </is>
       </c>
       <c r="B802" t="inlineStr"/>
@@ -25758,7 +25794,7 @@
         <v>5</v>
       </c>
       <c r="D802" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E802" t="n">
         <v>-1</v>
@@ -25773,7 +25809,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>AID_お手軽対戦で失敗した回数</t>
+          <t>AID_リレーバトル４開始した回数</t>
         </is>
       </c>
       <c r="B803" t="inlineStr"/>
@@ -25781,7 +25817,7 @@
         <v>5</v>
       </c>
       <c r="D803" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E803" t="n">
         <v>-1</v>
@@ -25796,7 +25832,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>AID_本格対戦をプレイした回数</t>
+          <t>AID_リレーバトル５開始した回数</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -25804,7 +25840,7 @@
         <v>5</v>
       </c>
       <c r="D804" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E804" t="n">
         <v>-1</v>
@@ -25819,7 +25855,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>AID_本格対戦で勝利した回数</t>
+          <t>AID_リレーバトル６開始した回数</t>
         </is>
       </c>
       <c r="B805" t="inlineStr"/>
@@ -25827,7 +25863,7 @@
         <v>5</v>
       </c>
       <c r="D805" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E805" t="n">
         <v>-1</v>
@@ -25842,7 +25878,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>AID_本格対戦で失敗した回数</t>
+          <t>AID_リレーバトル引き継いだ回数</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -25850,7 +25886,7 @@
         <v>5</v>
       </c>
       <c r="D806" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E806" t="n">
         <v>-1</v>
@@ -25865,7 +25901,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>AID_本格対戦で防御勝利した回数</t>
+          <t>AID_お手軽対戦をプレイした回数</t>
         </is>
       </c>
       <c r="B807" t="inlineStr"/>
@@ -25873,7 +25909,7 @@
         <v>5</v>
       </c>
       <c r="D807" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E807" t="n">
         <v>-1</v>
@@ -25888,7 +25924,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>AID_本格対戦で防御失敗した回数</t>
+          <t>AID_お手軽対戦で勝利した回数</t>
         </is>
       </c>
       <c r="B808" t="inlineStr"/>
@@ -25896,7 +25932,7 @@
         <v>5</v>
       </c>
       <c r="D808" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E808" t="n">
         <v>-1</v>
@@ -25907,6 +25943,144 @@
         <v>1</v>
       </c>
       <c r="I808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>AID_お手軽対戦で失敗した回数</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr"/>
+      <c r="C809" t="n">
+        <v>5</v>
+      </c>
+      <c r="D809" t="n">
+        <v>131</v>
+      </c>
+      <c r="E809" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="n">
+        <v>1</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>AID_本格対戦をプレイした回数</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr"/>
+      <c r="C810" t="n">
+        <v>5</v>
+      </c>
+      <c r="D810" t="n">
+        <v>132</v>
+      </c>
+      <c r="E810" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="n">
+        <v>1</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で勝利した回数</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="n">
+        <v>5</v>
+      </c>
+      <c r="D811" t="n">
+        <v>133</v>
+      </c>
+      <c r="E811" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="n">
+        <v>1</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で失敗した回数</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr"/>
+      <c r="C812" t="n">
+        <v>5</v>
+      </c>
+      <c r="D812" t="n">
+        <v>134</v>
+      </c>
+      <c r="E812" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="n">
+        <v>1</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で防御勝利した回数</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr"/>
+      <c r="C813" t="n">
+        <v>5</v>
+      </c>
+      <c r="D813" t="n">
+        <v>135</v>
+      </c>
+      <c r="E813" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="n">
+        <v>1</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>AID_本格対戦で防御失敗した回数</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="n">
+        <v>5</v>
+      </c>
+      <c r="D814" t="n">
+        <v>136</v>
+      </c>
+      <c r="E814" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F814" t="inlineStr"/>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="n">
+        <v>1</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
